--- a/file.xlsx
+++ b/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Рама</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Створка</t>
+  </si>
+  <si>
+    <t>Металл</t>
   </si>
 </sst>
 </file>
@@ -852,15 +855,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +873,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -881,6 +887,9 @@
       <c r="C2">
         <v>80</v>
       </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Рама</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Металл</t>
+  </si>
+  <si>
+    <t>м</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,17 +881,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
         <v>150</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchin\PycharmProjects\CalculateWindows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/CalculateWindows/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76819D5B-A6C8-594A-9E1E-ABFABDDB8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Рама</t>
   </si>
@@ -34,12 +35,60 @@
   </si>
   <si>
     <t>м</t>
+  </si>
+  <si>
+    <t>Штапик</t>
+  </si>
+  <si>
+    <t>182.6</t>
+  </si>
+  <si>
+    <t>208.3</t>
+  </si>
+  <si>
+    <t>216.5</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>98.5</t>
+  </si>
+  <si>
+    <t>Резина</t>
+  </si>
+  <si>
+    <t>Стекло</t>
+  </si>
+  <si>
+    <t>м^2</t>
+  </si>
+  <si>
+    <t>Замок</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Петля</t>
+  </si>
+  <si>
+    <t>Ручка</t>
+  </si>
+  <si>
+    <t>Производство</t>
+  </si>
+  <si>
+    <t>Монтаж</t>
+  </si>
+  <si>
+    <t>Прочее</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,16 +906,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +926,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -893,19 +969,73 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1400</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>600</v>
+      </c>
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>150</v>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+      <c r="M3">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/CalculateWindows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchin\PycharmProjects\CalculateWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76819D5B-A6C8-594A-9E1E-ABFABDDB8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="file" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Рама</t>
   </si>
@@ -83,12 +82,54 @@
   </si>
   <si>
     <t>Прочее</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Еденица</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Комбинированный</t>
+  </si>
+  <si>
+    <t>Цельный</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>98.6</t>
+  </si>
+  <si>
+    <t>236.2</t>
+  </si>
+  <si>
+    <t>277.2</t>
+  </si>
+  <si>
+    <t>267.9</t>
+  </si>
+  <si>
+    <t>98.7</t>
+  </si>
+  <si>
+    <t>288.5</t>
+  </si>
+  <si>
+    <t>330.9</t>
+  </si>
+  <si>
+    <t>68.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,135 +947,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C8">
+        <v>1400</v>
+      </c>
+      <c r="D8">
+        <v>1400</v>
+      </c>
+      <c r="E8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C10">
+        <v>600</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1400</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3">
+      <c r="C14">
         <v>600</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>300</v>
-      </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
-      <c r="M3">
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
         <v>600</v>
       </c>
     </row>
